--- a/Sleep Experiment.xlsx
+++ b/Sleep Experiment.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jntrcs\Documents\R Git Stuff\Fun-in-R\SleepStudy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1A51CB55-A16D-4B8B-A82D-06AEA27D8FFF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="12">
   <si>
     <t>Time</t>
   </si>
@@ -45,22 +54,29 @@
   <si>
     <t>void</t>
   </si>
+  <si>
+    <t>d</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -70,7 +86,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -80,53 +96,353 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B511"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
+      <selection activeCell="A274" sqref="A274:XFD274"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="31.0"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -134,15 +450,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>43114.98804563658</v>
+        <v>43114.988045636579</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43115.002666817134</v>
       </c>
@@ -150,31 +466,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>43115.00266203703</v>
+        <v>43115.002662037034</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>43115.49500793981</v>
+        <v>43115.495007939811</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>43115.94867439815</v>
+        <v>43115.948674398147</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43115.975378125004</v>
       </c>
@@ -182,15 +498,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>43115.97548282407</v>
+        <v>43115.975482824069</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43116.944090613426</v>
       </c>
@@ -198,15 +514,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>43116.96513974537</v>
+        <v>43116.965139745371</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43121.02946982639</v>
       </c>
@@ -214,31 +530,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>43121.06609245371</v>
+        <v>43121.066092453708</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>43121.94066995371</v>
+        <v>43121.940669953707</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>43121.96037247685</v>
+        <v>43121.960372476853</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43122.941076620365</v>
       </c>
@@ -246,7 +562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43122.957469189816</v>
       </c>
@@ -254,7 +570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43122.95760199074</v>
       </c>
@@ -262,23 +578,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>43123.9393003588</v>
+        <v>43123.939300358797</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>43123.93979364583</v>
+        <v>43123.939793645834</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43123.971445034724</v>
       </c>
@@ -286,23 +602,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>43124.91977228009</v>
+        <v>43124.919772280089</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>43124.92494508102</v>
+        <v>43124.924945081017</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43124.925019988426</v>
       </c>
@@ -310,31 +626,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>43125.96778355324</v>
+        <v>43125.967783553242</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>43125.97683846064</v>
+        <v>43125.976838460643</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>43125.97691927083</v>
+        <v>43125.976919270834</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43126.97754331019</v>
       </c>
@@ -342,23 +658,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>43126.98815185185</v>
+        <v>43126.988151851852</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>43126.98826174768</v>
+        <v>43126.988261747683</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43127.999387731485</v>
       </c>
@@ -366,15 +682,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>43128.01961121528</v>
+        <v>43128.019611215277</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43128.01977244213</v>
       </c>
@@ -382,23 +698,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>43128.01984864583</v>
+        <v>43128.019848645832</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>43128.01990903935</v>
+        <v>43128.019909039351</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43128.913401365746</v>
       </c>
@@ -406,63 +722,63 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>43128.94499590278</v>
+        <v>43128.944995902777</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>43128.96545229167</v>
+        <v>43128.965452291668</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>43128.96547109954</v>
+        <v>43128.965471099538</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>43129.92755140046</v>
+        <v>43129.927551400462</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>43129.94801228009</v>
+        <v>43129.948012280089</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>43130.93593421296</v>
+        <v>43130.935934212961</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>43130.9485194213</v>
+        <v>43130.948519421298</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43130.94859403935</v>
       </c>
@@ -470,23 +786,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>43131.92976799769</v>
+        <v>43131.929767997688</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>43132.29145628472</v>
+        <v>43132.291456284722</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43132.93233895833</v>
       </c>
@@ -494,7 +810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43132.95348462963</v>
       </c>
@@ -502,15 +818,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>43132.95355884259</v>
+        <v>43132.953558842593</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43133.985580416665</v>
       </c>
@@ -518,7 +834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43133.99900541667</v>
       </c>
@@ -526,23 +842,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>43133.99906096065</v>
+        <v>43133.999060960647</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>43134.96437410879</v>
+        <v>43134.964374108793</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>43134.96999474537</v>
       </c>
@@ -550,15 +866,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>43134.97013618056</v>
+        <v>43134.970136180556</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>43137.92502299769</v>
       </c>
@@ -566,39 +882,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>43138.0321497338</v>
+        <v>43138.032149733801</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>43138.94889395833</v>
+        <v>43138.948893958332</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>43138.96306768518</v>
+        <v>43138.963067685181</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>43138.96323829862</v>
+        <v>43138.963238298616</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>43139.950183113426</v>
       </c>
@@ -606,23 +922,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>43139.95669369213</v>
+        <v>43139.956693692133</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>43139.95676105324</v>
+        <v>43139.956761053239</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>43140.968707754626</v>
       </c>
@@ -630,7 +946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>43141.006944444445</v>
       </c>
@@ -638,15 +954,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>43141.72423244213</v>
+        <v>43141.724232442131</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>43141.95727298611</v>
       </c>
@@ -654,47 +970,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>43141.96870450232</v>
+        <v>43141.968704502317</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>43141.9687812037</v>
+        <v>43141.968781203701</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>43142.97257759259</v>
+        <v>43142.972577592591</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>43142.98189579861</v>
+        <v>43142.981895798614</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>43142.98209091435</v>
+        <v>43142.982090914353</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>43143.94284606482</v>
       </c>
@@ -702,7 +1018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>43143.97463055556</v>
       </c>
@@ -710,7 +1026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>43143.974759895835</v>
       </c>
@@ -718,31 +1034,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>43143.97485241898</v>
+        <v>43143.974852418978</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>43144.93193041667</v>
+        <v>43144.931930416671</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>43145.37791084491</v>
+        <v>43145.377910844909</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>43145.929852835645</v>
       </c>
@@ -750,7 +1066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>43145.944293368055</v>
       </c>
@@ -758,23 +1074,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>43145.9447478588</v>
+        <v>43145.944747858797</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>43147.01933793981</v>
+        <v>43147.019337939812</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>43147.027987939815</v>
       </c>
@@ -782,7 +1098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>43147.028002569445</v>
       </c>
@@ -790,71 +1106,71 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>43148.02405040509</v>
+        <v>43148.024050405089</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>43148.04116916667</v>
+        <v>43148.041169166667</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>43148.04138332176</v>
+        <v>43148.041383321761</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>43148.96511635417</v>
+        <v>43148.965116354171</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>43148.98850659722</v>
+        <v>43148.988506597219</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>43150.9376740625</v>
+        <v>43150.937674062501</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>43150.94958789352</v>
+        <v>43150.949587893519</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>43150.94967981482</v>
+        <v>43150.949679814818</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>43151.943433333334</v>
       </c>
@@ -862,7 +1178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>43151.956977187496</v>
       </c>
@@ -870,7 +1186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>43153.397930844905</v>
       </c>
@@ -878,15 +1194,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>43153.95677143519</v>
+        <v>43153.956771435187</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>43153.987878217595</v>
       </c>
@@ -894,23 +1210,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>43155.04296193287</v>
+        <v>43155.042961932872</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>43155.06435028935</v>
+        <v>43155.064350289351</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>43156.368535138885</v>
       </c>
@@ -918,39 +1234,39 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>43156.95989652778</v>
+        <v>43156.959896527776</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>43156.9828125</v>
+        <v>43156.982812499999</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>43159.28956952546</v>
+        <v>43159.289569525463</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>43159.29069685185</v>
+        <v>43159.290696851851</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>43159.354732465275</v>
       </c>
@@ -958,39 +1274,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>43159.95925280092</v>
+        <v>43159.959252800923</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>43159.97776489583</v>
+        <v>43159.977764895833</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>43159.97776489583</v>
+        <v>43159.977764895833</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>43160.93084407407</v>
+        <v>43160.930844074072</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>43160.940980150466</v>
       </c>
@@ -998,7 +1314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>43160.940983796296</v>
       </c>
@@ -1006,7 +1322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>43162.980416273145</v>
       </c>
@@ -1014,15 +1330,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>43162.99751991898</v>
+        <v>43162.997519918979</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>43163.965418657404</v>
       </c>
@@ -1030,55 +1346,55 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>43164.00333179398</v>
+        <v>43164.003331793981</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>43164.93160394676</v>
+        <v>43164.931603946759</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>43164.96047902778</v>
+        <v>43164.960479027781</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>43165.92252533565</v>
+        <v>43165.922525335649</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>43165.9285013426</v>
+        <v>43165.928501342598</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>43165.92858607639</v>
+        <v>43165.928586076392</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>43166.929553090275</v>
       </c>
@@ -1086,7 +1402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>43166.982157025464</v>
       </c>
@@ -1094,31 +1410,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>43167.9126912963</v>
+        <v>43167.912691296297</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>43167.92286019676</v>
+        <v>43167.922860196762</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>43168.93100467593</v>
+        <v>43168.931004675927</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>43168.94324197917</v>
       </c>
@@ -1126,23 +1442,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>43168.94331190972</v>
+        <v>43168.943311909723</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>43169.7847197338</v>
+        <v>43169.784719733798</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>43169.967160520835</v>
       </c>
@@ -1150,7 +1466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>43169.978692881945</v>
       </c>
@@ -1158,15 +1474,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>43170.94148673611</v>
+        <v>43170.941486736112</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>43170.957903159724</v>
       </c>
@@ -1174,7 +1490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>43170.958148935184</v>
       </c>
@@ -1182,15 +1498,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>43171.94705358797</v>
+        <v>43171.947053587966</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>43171.958553206015</v>
       </c>
@@ -1198,7 +1514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>43171.958603946754</v>
       </c>
@@ -1206,39 +1522,39 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>43172.97074443287</v>
+        <v>43172.970744432867</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>43172.98852986111</v>
+        <v>43172.988529861112</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>43173.94184665509</v>
+        <v>43173.941846655092</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>43173.95129013889</v>
+        <v>43173.951290138888</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>43173.95134915509</v>
       </c>
@@ -1246,15 +1562,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>43174.95276914352</v>
+        <v>43174.952769143521</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>43174.983781319446</v>
       </c>
@@ -1262,23 +1578,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>43176.96912746527</v>
+        <v>43176.969127465272</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>43176.97743766203</v>
+        <v>43176.977437662033</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>43177.96487387731</v>
       </c>
@@ -1286,47 +1602,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>43177.99280748842</v>
+        <v>43177.992807488423</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>43178.93743972223</v>
+        <v>43178.937439722227</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>43178.97167291667</v>
+        <v>43178.971672916668</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>43179.94968805555</v>
+        <v>43179.949688055553</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>43179.96233113426</v>
+        <v>43179.962331134258</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>43179.96238863426</v>
       </c>
@@ -1334,7 +1650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>43180.942114074074</v>
       </c>
@@ -1342,7 +1658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>43180.942772395836</v>
       </c>
@@ -1350,39 +1666,39 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>43180.94283180556</v>
+        <v>43180.942831805558</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>43180.94338275463</v>
+        <v>43180.943382754631</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>43180.94346958333</v>
+        <v>43180.943469583333</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>43180.95258914352</v>
+        <v>43180.952589143519</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>43180.95291659722</v>
       </c>
@@ -1390,23 +1706,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>43181.9513869213</v>
+        <v>43181.951386921297</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>43181.97237956019</v>
+        <v>43181.972379560189</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>43183.064323321756</v>
       </c>
@@ -1414,15 +1730,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>43183.08453532407</v>
+        <v>43183.084535324073</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>43183.990749652774</v>
       </c>
@@ -1430,23 +1746,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>43183.99981204861</v>
+        <v>43183.999812048613</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
-        <v>43184.94926026621</v>
+        <v>43184.949260266207</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>43184.976531099535</v>
       </c>
@@ -1454,31 +1770,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
-        <v>43185.92557989583</v>
+        <v>43185.925579895833</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>43186.00231355324</v>
+        <v>43186.002313553239</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
-        <v>43186.94837690972</v>
+        <v>43186.948376909721</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>43186.94872782407</v>
       </c>
@@ -1486,7 +1802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>43186.94878712963</v>
       </c>
@@ -1494,15 +1810,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>43186.94906277778</v>
+        <v>43186.949062777778</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>43186.949157546296</v>
       </c>
@@ -1510,7 +1826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>43186.949375185184</v>
       </c>
@@ -1518,31 +1834,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>43186.94945695602</v>
+        <v>43186.949456956019</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>43186.96697490741</v>
+        <v>43186.966974907409</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>43187.95801990741</v>
+        <v>43187.958019907412</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>43188.013100833334</v>
       </c>
@@ -1550,7 +1866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>43188.946689965276</v>
       </c>
@@ -1558,7 +1874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>43188.969105069446</v>
       </c>
@@ -1566,7 +1882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>43190.914810648144</v>
       </c>
@@ -1574,7 +1890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>43190.914852118054</v>
       </c>
@@ -1582,7 +1898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>43190.966954710646</v>
       </c>
@@ -1590,23 +1906,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
-        <v>43190.98065138889</v>
+        <v>43190.980651388891</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
-        <v>43190.98087560185</v>
+        <v>43190.980875601846</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>43191.935717789354</v>
       </c>
@@ -1614,7 +1930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>43191.947347407404</v>
       </c>
@@ -1622,15 +1938,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
-        <v>43191.94739936343</v>
+        <v>43191.947399363431</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>43192.941735844906</v>
       </c>
@@ -1638,23 +1954,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
-        <v>43192.99230466435</v>
+        <v>43192.992304664353</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
-        <v>43193.94082069444</v>
+        <v>43193.940820694443</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>43193.97190261574</v>
       </c>
@@ -1662,7 +1978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>43194.948276041665</v>
       </c>
@@ -1670,15 +1986,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
-        <v>43194.97158835648</v>
+        <v>43194.971588356479</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>43195.941933587965</v>
       </c>
@@ -1686,47 +2002,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
-        <v>43196.34128800926</v>
+        <v>43196.341288009258</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
-        <v>43196.34147799769</v>
+        <v>43196.341477997688</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
-        <v>43197.03720623843</v>
+        <v>43197.037206238427</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
-        <v>43197.06760572917</v>
+        <v>43197.067605729171</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
-        <v>43197.06769871528</v>
+        <v>43197.067698715276</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>43197.96946216435</v>
       </c>
@@ -1734,23 +2050,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
-        <v>43198.00332267361</v>
+        <v>43198.003322673612</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
-        <v>43198.94178623843</v>
+        <v>43198.941786238429</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>43198.95268884259</v>
       </c>
@@ -1758,15 +2074,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
-        <v>43198.9528412037</v>
+        <v>43198.952841203703</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>43199.941920439815</v>
       </c>
@@ -1774,15 +2090,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
-        <v>43199.94805699074</v>
+        <v>43199.948056990739</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>43199.948126944444</v>
       </c>
@@ -1790,15 +2106,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
-        <v>43200.93949736111</v>
+        <v>43200.939497361112</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>43200.953816747686</v>
       </c>
@@ -1806,47 +2122,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
-        <v>43200.95386070602</v>
+        <v>43200.953860706017</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
-        <v>43201.91974246528</v>
+        <v>43201.919742465281</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
-        <v>43201.9272272338</v>
+        <v>43201.927227233798</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
-        <v>43202.62959142361</v>
+        <v>43202.629591423611</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
-        <v>43202.93308785879</v>
+        <v>43202.933087858793</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>43202.97112850695</v>
       </c>
@@ -1854,7 +2170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>43203.99097806713</v>
       </c>
@@ -1862,55 +2178,55 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
-        <v>43203.999795625</v>
+        <v>43203.999795625001</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
-        <v>43203.99991480324</v>
+        <v>43203.999914803237</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
-        <v>43204.97973903935</v>
+        <v>43204.979739039351</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
-        <v>43205.00120896991</v>
+        <v>43205.001208969908</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
-        <v>43205.9648153125</v>
+        <v>43205.964815312502</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
-        <v>43206.00019535879</v>
+        <v>43206.000195358793</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>43206.900671111114</v>
       </c>
@@ -1918,7 +2234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>43206.909530000004</v>
       </c>
@@ -1926,39 +2242,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
-        <v>43206.90957318287</v>
+        <v>43206.909573182871</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
-        <v>43207.89075792824</v>
+        <v>43207.890757928239</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
-        <v>43207.93651557871</v>
+        <v>43207.936515578709</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
-        <v>43209.88759799769</v>
+        <v>43209.887597997687</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>43209.89504938657</v>
       </c>
@@ -1966,23 +2282,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
-        <v>43209.89514799768</v>
+        <v>43209.895147997682</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
-        <v>43210.92350539352</v>
+        <v>43210.923505393519</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>43210.943473101855</v>
       </c>
@@ -1990,15 +2306,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
-        <v>43210.94357200232</v>
+        <v>43210.943572002318</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>43212.948359560185</v>
       </c>
@@ -2006,23 +2322,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
-        <v>43212.95715670139</v>
+        <v>43212.957156701392</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
-        <v>43212.95720567129</v>
+        <v>43212.957205671293</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>43214.95408023148</v>
       </c>
@@ -2030,23 +2346,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
-        <v>43214.98374833333</v>
+        <v>43214.983748333332</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
-        <v>43214.98388321759</v>
+        <v>43214.983883217588</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>43215.970208136576</v>
       </c>
@@ -2054,15 +2370,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
-        <v>43215.99574629629</v>
+        <v>43215.995746296292</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>43216.927600752315</v>
       </c>
@@ -2070,7 +2386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>43216.966946863424</v>
       </c>
@@ -2078,39 +2394,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
-        <v>43218.0268737963</v>
+        <v>43218.026873796298</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
-        <v>43218.06840459491</v>
+        <v>43218.068404594909</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
-        <v>43218.97769987269</v>
+        <v>43218.977699872688</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
-        <v>43219.00212651621</v>
+        <v>43219.002126516207</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>43219.91783726852</v>
       </c>
@@ -2118,55 +2434,55 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
-        <v>43219.97800171297</v>
+        <v>43219.978001712967</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
-        <v>43220.94836005787</v>
+        <v>43220.948360057868</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
-        <v>43221.031891875</v>
+        <v>43221.031891874998</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
-        <v>43221.97936641204</v>
+        <v>43221.979366412037</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
-        <v>43221.98673304398</v>
+        <v>43221.986733043981</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
-        <v>43221.98683618056</v>
+        <v>43221.986836180557</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>43222.914788379625</v>
       </c>
@@ -2174,7 +2490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>43222.945187708334</v>
       </c>
@@ -2182,7 +2498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>43223.924706817124</v>
       </c>
@@ -2190,39 +2506,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
-        <v>43223.95231469907</v>
+        <v>43223.952314699069</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
-        <v>43224.97458098379</v>
+        <v>43224.974580983791</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
-        <v>43224.98410886574</v>
+        <v>43224.984108865741</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
-        <v>43224.98416810185</v>
+        <v>43224.984168101852</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>43225.97882971065</v>
       </c>
@@ -2230,31 +2546,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
-        <v>43226.00030886574</v>
+        <v>43226.000308865739</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
-        <v>43226.93731792824</v>
+        <v>43226.937317928241</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
-        <v>43226.95878365741</v>
+        <v>43226.958783657406</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>43226.990568587964</v>
       </c>
@@ -2262,15 +2578,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
-        <v>43227.9703046412</v>
+        <v>43227.970304641203</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>43227.99234355324</v>
       </c>
@@ -2278,15 +2594,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
-        <v>43228.98602486111</v>
+        <v>43228.986024861108</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>43229.006711458336</v>
       </c>
@@ -2294,7 +2610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>43229.956633344904</v>
       </c>
@@ -2302,469 +2618,1747 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
-        <v>43229.96989083334</v>
+        <v>43229.969890833338</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
-        <v>43230.33048466435</v>
-      </c>
-      <c r="B274" s="1">
-        <v>9467646.0</v>
-      </c>
-    </row>
-    <row r="275">
+        <v>43230.959132696764</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
-        <v>43230.959132696764</v>
+        <v>43231.311862187504</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="276">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
-        <v>43231.311862187504</v>
+        <v>43231.312074907408</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="277">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
-        <v>43231.31207490741</v>
+        <v>43231.966813333333</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
-        <v>43231.96681333333</v>
+        <v>43231.974245046295</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="279">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
-        <v>43231.974245046295</v>
+        <v>43231.974287326389</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="280">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
-        <v>43231.97428732639</v>
+        <v>43232.941223530092</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
-        <v>43232.94122353009</v>
+        <v>43232.975788275464</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="282">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
-        <v>43232.975788275464</v>
+        <v>43233.927451238429</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
-        <v>43233.92745123843</v>
+        <v>43233.944586064812</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="284">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
-        <v>43233.94458606481</v>
+        <v>43233.944716331018</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="285">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
-        <v>43233.94471633102</v>
+        <v>43234.996315821758</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
-        <v>43234.99631582176</v>
+        <v>43235.003741689812</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="287">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
-        <v>43235.00374168981</v>
+        <v>43235.003801319443</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="288">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
-        <v>43235.00380131944</v>
+        <v>43235.951710590278</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
-        <v>43235.95171059028</v>
+        <v>43235.967501620369</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="290">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
-        <v>43235.96750162037</v>
+        <v>43236.945258182866</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
-        <v>43236.94525818287</v>
+        <v>43237.038262592592</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="292">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
-        <v>43237.03826259259</v>
+        <v>43237.935893842594</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="293">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
-        <v>43237.935893842594</v>
+        <v>43237.944907407407</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A294" s="2">
+        <v>43237.944907407407</v>
+      </c>
       <c r="B294" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="295">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
-        <v>43237.94490956019</v>
+        <v>43238.95509427083</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
-        <v>43238.95509427083</v>
+        <v>43238.988966712961</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="297">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
-        <v>43238.98896671296</v>
+        <v>43239.940328379627</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="298">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
-        <v>43239.94032837963</v>
+        <v>43239.978383090274</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="299">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
-        <v>43239.978383090274</v>
+        <v>43240.946435393518</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
-        <v>43240.94643539352</v>
+        <v>43240.964278738422</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="301">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
-        <v>43240.96427873842</v>
+        <v>43241.956958831019</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
-        <v>43241.95695883102</v>
+        <v>43241.967879618052</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="303">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
-        <v>43241.96787961805</v>
+        <v>43241.967949328704</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="304">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
-        <v>43241.967949328704</v>
+        <v>43242.948044699078</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
-        <v>43242.94804469908</v>
+        <v>43242.986716585649</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="306">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
-        <v>43242.98671658565</v>
+        <v>43243.966776493056</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
-        <v>43243.96677649306</v>
+        <v>43243.985342106476</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="308">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
-        <v>43243.985342106476</v>
+        <v>43247.879093009258</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
-        <v>43247.87909300926</v>
+        <v>43247.885858576388</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="310">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
-        <v>43247.88585857639</v>
+        <v>43247.886048229164</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="311">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
-        <v>43247.886048229164</v>
+        <v>43248.876284085651</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="2"/>
-      <c r="B312" s="1"/>
-    </row>
-    <row r="313">
-      <c r="A313" s="2"/>
-      <c r="B313" s="1"/>
-    </row>
-    <row r="314">
-      <c r="A314" s="2"/>
-      <c r="B314" s="1"/>
-    </row>
-    <row r="315">
-      <c r="A315" s="2"/>
-      <c r="B315" s="1"/>
-    </row>
-    <row r="316">
-      <c r="A316" s="2"/>
-      <c r="B316" s="1"/>
-    </row>
-    <row r="317">
-      <c r="A317" s="2"/>
-      <c r="B317" s="1"/>
-    </row>
-    <row r="318">
-      <c r="A318" s="2"/>
-      <c r="B318" s="1"/>
-    </row>
-    <row r="319">
-      <c r="A319" s="2"/>
-      <c r="B319" s="1"/>
-    </row>
-    <row r="320">
-      <c r="A320" s="2"/>
-      <c r="B320" s="1"/>
-    </row>
-    <row r="321">
-      <c r="A321" s="2"/>
-      <c r="B321" s="1"/>
-    </row>
-    <row r="322">
-      <c r="A322" s="2"/>
-      <c r="B322" s="1"/>
-    </row>
-    <row r="323">
-      <c r="A323" s="2"/>
-      <c r="B323" s="1"/>
-    </row>
-    <row r="324">
-      <c r="A324" s="2"/>
-      <c r="B324" s="1"/>
-    </row>
-    <row r="328">
-      <c r="A328" s="2"/>
-      <c r="B328" s="1"/>
-    </row>
-    <row r="329">
-      <c r="A329" s="2"/>
-      <c r="B329" s="1"/>
-    </row>
-    <row r="330">
-      <c r="A330" s="2"/>
-      <c r="B330" s="1"/>
-    </row>
-    <row r="331">
-      <c r="A331" s="2"/>
-      <c r="B331" s="1"/>
-    </row>
-    <row r="332">
-      <c r="A332" s="2"/>
-      <c r="B332" s="1"/>
-    </row>
-    <row r="333">
-      <c r="A333" s="2"/>
-      <c r="B333" s="1"/>
-    </row>
-    <row r="334">
-      <c r="A334" s="2"/>
-      <c r="B334" s="1"/>
-    </row>
-    <row r="335">
-      <c r="A335" s="2"/>
-      <c r="B335" s="1"/>
-    </row>
-    <row r="336">
-      <c r="A336" s="2"/>
-      <c r="B336" s="1"/>
-    </row>
-    <row r="337">
-      <c r="A337" s="2"/>
-      <c r="B337" s="1"/>
-    </row>
-    <row r="338">
-      <c r="A338" s="2"/>
-      <c r="B338" s="1"/>
-    </row>
-    <row r="339">
-      <c r="A339" s="2"/>
-      <c r="B339" s="1"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="2"/>
-      <c r="B340" s="1"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="2"/>
-      <c r="B341" s="1"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="2"/>
-      <c r="B342" s="1"/>
-    </row>
-    <row r="343">
-      <c r="A343" s="2"/>
-      <c r="B343" s="1"/>
-    </row>
-    <row r="344">
-      <c r="A344" s="2"/>
-      <c r="B344" s="1"/>
-    </row>
-    <row r="345">
-      <c r="A345" s="2"/>
-      <c r="B345" s="1"/>
-    </row>
-    <row r="346">
-      <c r="A346" s="2"/>
-      <c r="B346" s="1"/>
-    </row>
-    <row r="347">
-      <c r="A347" s="2"/>
-      <c r="B347" s="1"/>
-    </row>
-    <row r="348">
-      <c r="A348" s="1"/>
-      <c r="B348" s="1"/>
-    </row>
-    <row r="349">
-      <c r="A349" s="1"/>
-      <c r="B349" s="1"/>
-    </row>
-    <row r="350">
-      <c r="A350" s="1"/>
-      <c r="B350" s="1"/>
-    </row>
-    <row r="351">
-      <c r="A351" s="1"/>
-      <c r="B351" s="1"/>
-    </row>
-    <row r="352">
-      <c r="A352" s="1"/>
-      <c r="B352" s="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A312" s="2">
+        <v>43248.894150659718</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A313" s="2">
+        <v>43249.863705150463</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A314" s="2">
+        <v>43249.898261284718</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A315" s="2">
+        <v>43250.851707812501</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A316" s="2">
+        <v>43250.886287037036</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A317" s="2">
+        <v>43251.847900381945</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A318" s="2">
+        <v>43251.896369085647</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A319" s="2">
+        <v>43251.896430081018</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A320" s="2">
+        <v>43252.915950833332</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A321" s="2">
+        <v>43252.944999930551</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A322" s="2">
+        <v>43253.933843796302</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A323" s="2">
+        <v>43253.947563159723</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A324" s="2">
+        <v>43253.947619513885</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A325" s="2">
+        <v>43254.853189016205</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A326" s="2">
+        <v>43254.862739884258</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A327" s="2">
+        <v>43254.862787650462</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A328" s="2">
+        <v>43255.853016145833</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A329" s="2">
+        <v>43255.934181319448</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A330" s="2">
+        <v>43256.856068946756</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A331" s="2">
+        <v>43256.864947476854</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A332" s="2">
+        <v>43257.861419618057</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A333" s="2">
+        <v>43257.900846932869</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A334" s="2">
+        <v>43258.851607951394</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A335" s="2">
+        <v>43258.863887800922</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A336" s="2">
+        <v>43259.926200740738</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A337" s="2">
+        <v>43259.960098437499</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A338" s="2">
+        <v>43260.917282164351</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A339" s="2">
+        <v>43260.937063240737</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A340" s="2">
+        <v>43261.848988240745</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A341" s="2">
+        <v>43261.861997662039</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A342" s="2">
+        <v>43261.862059421299</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A343" s="2">
+        <v>43262.857377071763</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A344" s="2">
+        <v>43262.882195763887</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A345" s="2">
+        <v>43262.882255115735</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A346" s="2">
+        <v>43263.664976921296</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A347" s="2">
+        <v>43263.844627303246</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A348" s="2">
+        <v>43263.888945578699</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A349" s="2">
+        <v>43264.848599409721</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A350" s="2">
+        <v>43264.87900857639</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A351" s="2">
+        <v>43265.859930787032</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A352" s="2">
+        <v>43265.866647106479</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A353" s="2">
+        <v>43265.866709652779</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A354" s="2">
+        <v>43266.875823541668</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A355" s="2">
+        <v>43266.902966111113</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A356" s="2">
+        <v>43267.863190694443</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A357" s="2">
+        <v>43267.883834050925</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A358" s="2">
+        <v>43268.856737627313</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A359" s="2">
+        <v>43268.872532858797</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A360" s="2">
+        <v>43268.872602673611</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A361" s="2">
+        <v>43269.852060405094</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A362" s="2">
+        <v>43269.869949039348</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A363" s="2">
+        <v>43270.841413229165</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A364" s="2">
+        <v>43270.870447604168</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A365" s="2">
+        <v>43271.842621284726</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A366" s="2">
+        <v>43271.870914629631</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A367" s="2">
+        <v>43272.857940729169</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A368" s="2">
+        <v>43272.865384189819</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A369" s="2">
+        <v>43272.865563113424</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A370" s="2">
+        <v>43273.896488067126</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A371" s="2">
+        <v>43273.929358182868</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A372" s="2">
+        <v>43274.909380370373</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A373" s="2">
+        <v>43275.017670763889</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A374" s="2">
+        <v>43275.820167638885</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A375" s="2">
+        <v>43275.848505543981</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A376" s="2">
+        <v>43276.865872812501</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A377" s="2">
+        <v>43276.871939884259</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A378" s="2">
+        <v>43276.872126539354</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A379" s="2">
+        <v>43277.827133125</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A380" s="2">
+        <v>43277.862408263885</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A381" s="2">
+        <v>43278.857812800925</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A382" s="2">
+        <v>43278.868050729172</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A383" s="2">
+        <v>43278.86810634259</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A384" s="2">
+        <v>43279.856974062495</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A385" s="2">
+        <v>43279.886702048607</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A386" s="2">
+        <v>43280.823485173612</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A387" s="2">
+        <v>43280.837130798609</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A388" s="2">
+        <v>43280.837168287035</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A389" s="2">
+        <v>43282.835273715275</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A390" s="2">
+        <v>43282.857340405091</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A391" s="2">
+        <v>43282.857458564817</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A392" s="2">
+        <v>43283.843190081017</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A393" s="2">
+        <v>43283.879798773152</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A394" s="2">
+        <v>43284.891131307872</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A395" s="2">
+        <v>43284.908286944439</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A396" s="2">
+        <v>43285.894761261574</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A397" s="2">
+        <v>43285.910540185185</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A398" s="2">
+        <v>43286.848114537039</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A399" s="2">
+        <v>43286.85835318287</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A400" s="2">
+        <v>43286.858505069446</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A401" s="2">
+        <v>43287.891500590282</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A402" s="2">
+        <v>43287.916354236106</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A403" s="2">
+        <v>43288.888098067131</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A404" s="2">
+        <v>43288.895581481484</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A405" s="2">
+        <v>43289.829887534725</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A406" s="2">
+        <v>43289.837351180555</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A407" s="2">
+        <v>43289.83739645833</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A408" s="2">
+        <v>43290.833282210646</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A409" s="2">
+        <v>43290.853244270838</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A410" s="2">
+        <v>43290.8533340625</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A411" s="2">
+        <v>43291.841788437501</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A412" s="2">
+        <v>43291.856323796295</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A413" s="2">
+        <v>43291.85636888889</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A414" s="2">
+        <v>43292.859707708332</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A415" s="2">
+        <v>43292.872048321762</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A416" s="2">
+        <v>43293.840791875002</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A417" s="2">
+        <v>43293.846828622685</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A418" s="2">
+        <v>43293.846896793984</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A419" s="2">
+        <v>43294.861719641209</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A420" s="2">
+        <v>43294.885882905088</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A421" s="2">
+        <v>43295.897078287038</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A422" s="2">
+        <v>43295.914813495372</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A423" s="2">
+        <v>43295.914854375005</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A424" s="5">
+        <v>43296.834293981483</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A425" s="2">
+        <v>43296.841238425928</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A426" s="2">
+        <v>43296.841277453699</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A427" s="2">
+        <v>43297.866025613424</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A428" s="2">
+        <v>43297.890867245369</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A429" s="2">
+        <v>43297.891057858797</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A430" s="2">
+        <v>43298.838599965282</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A431" s="2">
+        <v>43298.851608159719</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A432" s="2">
+        <v>43299.852508599535</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A433" s="2">
+        <v>43299.863443981478</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A434" s="2">
+        <v>43299.863490891206</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A435" s="2">
+        <v>43300.823973344908</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A436" s="2">
+        <v>43300.831454571759</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A437" s="2">
+        <v>43300.831485046292</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A438" s="2">
+        <v>43301.88021372685</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A439" s="2">
+        <v>43301.889031747683</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A440" s="2">
+        <v>43303.856222337963</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A441" s="2">
+        <v>43303.859147499999</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A442" s="2">
+        <v>43304.84620907408</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A443" s="2">
+        <v>43304.861985636569</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A444" s="2">
+        <v>43304.862023622685</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A445" s="2">
+        <v>43305.830876064814</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A446" s="2">
+        <v>43305.866174814815</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A447" s="2">
+        <v>43306.858828865741</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A448" s="2">
+        <v>43306.868380590277</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A449" s="2">
+        <v>43306.868427361114</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A450" s="2">
+        <v>43307.848647870371</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A451" s="2">
+        <v>43307.865304699073</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A452" s="2">
+        <v>43308.852625821761</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A453" s="2">
+        <v>43308.872597118054</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A454" s="2">
+        <v>43308.872640208334</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A455" s="2">
+        <v>43309.969158043983</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A456" s="2">
+        <v>43309.983531192134</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A457" s="2">
+        <v>43309.983583310182</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A458" s="2">
+        <v>43310.845744918981</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A459" s="2">
+        <v>43310.862948020833</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A460" s="2">
+        <v>43311.844886273146</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A461" s="5">
+        <v>43311.855891203704</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A462" s="2">
+        <v>43311.855891203704</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A463" s="2">
+        <v>43312.850912013892</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A464" s="2">
+        <v>43312.888985590282</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A465" s="2">
+        <v>43313.857575624999</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A466" s="2">
+        <v>43313.895660335649</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A467" s="2">
+        <v>43313.8957228125</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A468" s="2">
+        <v>43314.86326528935</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A469" s="2">
+        <v>43314.880572928239</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A470" s="2">
+        <v>43315.844765023146</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A471" s="2">
+        <v>43315.867502048612</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A472" s="2"/>
+      <c r="B472" s="1"/>
+    </row>
+    <row r="473" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A473" s="2"/>
+      <c r="B473" s="1"/>
+    </row>
+    <row r="474" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A474" s="2"/>
+      <c r="B474" s="1"/>
+    </row>
+    <row r="475" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A475" s="2"/>
+      <c r="B475" s="1"/>
+    </row>
+    <row r="476" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A476" s="2"/>
+      <c r="B476" s="1"/>
+    </row>
+    <row r="477" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A477" s="2"/>
+      <c r="B477" s="1"/>
+    </row>
+    <row r="478" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A478" s="2"/>
+      <c r="B478" s="1"/>
+    </row>
+    <row r="479" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A479" s="2"/>
+      <c r="B479" s="1"/>
+    </row>
+    <row r="480" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A480" s="2"/>
+      <c r="B480" s="1"/>
+    </row>
+    <row r="481" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A481" s="2"/>
+      <c r="B481" s="1"/>
+    </row>
+    <row r="482" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A482" s="2"/>
+      <c r="B482" s="1"/>
+    </row>
+    <row r="483" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A483" s="2"/>
+      <c r="B483" s="1"/>
+    </row>
+    <row r="487" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A487" s="2"/>
+      <c r="B487" s="1"/>
+    </row>
+    <row r="488" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A488" s="2"/>
+      <c r="B488" s="1"/>
+    </row>
+    <row r="489" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A489" s="2"/>
+      <c r="B489" s="1"/>
+    </row>
+    <row r="490" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A490" s="2"/>
+      <c r="B490" s="1"/>
+    </row>
+    <row r="491" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A491" s="2"/>
+      <c r="B491" s="1"/>
+    </row>
+    <row r="492" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A492" s="2"/>
+      <c r="B492" s="1"/>
+    </row>
+    <row r="493" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A493" s="2"/>
+      <c r="B493" s="1"/>
+    </row>
+    <row r="494" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A494" s="2"/>
+      <c r="B494" s="1"/>
+    </row>
+    <row r="495" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A495" s="2"/>
+      <c r="B495" s="1"/>
+    </row>
+    <row r="496" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A496" s="2"/>
+      <c r="B496" s="1"/>
+    </row>
+    <row r="497" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A497" s="2"/>
+      <c r="B497" s="1"/>
+    </row>
+    <row r="498" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A498" s="2"/>
+      <c r="B498" s="1"/>
+    </row>
+    <row r="499" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A499" s="2"/>
+      <c r="B499" s="1"/>
+    </row>
+    <row r="500" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A500" s="2"/>
+      <c r="B500" s="1"/>
+    </row>
+    <row r="501" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A501" s="2"/>
+      <c r="B501" s="1"/>
+    </row>
+    <row r="502" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A502" s="2"/>
+      <c r="B502" s="1"/>
+    </row>
+    <row r="503" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A503" s="2"/>
+      <c r="B503" s="1"/>
+    </row>
+    <row r="504" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A504" s="2"/>
+      <c r="B504" s="1"/>
+    </row>
+    <row r="505" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A505" s="2"/>
+      <c r="B505" s="1"/>
+    </row>
+    <row r="506" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A506" s="2"/>
+      <c r="B506" s="1"/>
+    </row>
+    <row r="507" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A507" s="1"/>
+      <c r="B507" s="1"/>
+    </row>
+    <row r="508" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A508" s="1"/>
+      <c r="B508" s="1"/>
+    </row>
+    <row r="509" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A509" s="1"/>
+      <c r="B509" s="1"/>
+    </row>
+    <row r="510" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A510" s="1"/>
+      <c r="B510" s="1"/>
+    </row>
+    <row r="511" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A511" s="1"/>
+      <c r="B511" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>